--- a/data/irc pricing records.xlsx
+++ b/data/irc pricing records.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mohammad\projects\Thesis\hemophilia\data\processed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mohammad\projects\Thesis\hemophilia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C8C758-82D1-4DD6-9C0C-F74919A6ED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D515CD-6679-4045-9B7D-810844760D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$J$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$K$59</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="128">
   <si>
     <t>persian_name</t>
   </si>
@@ -359,6 +359,54 @@
   </si>
   <si>
     <t>LONG ACTING</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>SAFACTO AF</t>
+  </si>
+  <si>
+    <t>OCTANATE</t>
+  </si>
+  <si>
+    <t>NOVOEIGHT</t>
+  </si>
+  <si>
+    <t>EMOCLOT</t>
+  </si>
+  <si>
+    <t>BERIATE P</t>
+  </si>
+  <si>
+    <t>HAEMOCTIN</t>
+  </si>
+  <si>
+    <t>FACTANE</t>
+  </si>
+  <si>
+    <t>XYNTHA</t>
+  </si>
+  <si>
+    <t>FANHDI</t>
+  </si>
+  <si>
+    <t>HEMOFIL-M</t>
+  </si>
+  <si>
+    <t>GREEN VIII</t>
+  </si>
+  <si>
+    <t>COAGEIGHT</t>
+  </si>
+  <si>
+    <t>IMMUNATE</t>
+  </si>
+  <si>
+    <t>0073217792129398</t>
+  </si>
+  <si>
+    <t>0579693345955352</t>
   </si>
 </sst>
 </file>
@@ -463,7 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -485,6 +533,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -791,1879 +845,2012 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="55.77734375" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="56.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>9893300</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="11">
         <v>5468833561827703</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>52878</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>14839000</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="11">
         <v>7181189698679814</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>13238</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>15594000</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="11">
         <v>6492068223587497</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>13238</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>24489620</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="11">
         <v>8442429033483492</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>52879</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>29000000</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="11">
         <v>9547376896999538</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>52933</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>3370000</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>6073259517479145</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>13238</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>29000000</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="11">
         <v>8683308644773839</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>12544</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>3370000</v>
       </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9">
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9">
         <v>1392789250378169</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>13238</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>3370000</v>
       </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10">
         <v>4344890583124429</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>13238</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>29000000</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="3">
-        <v>73217792129398</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="I11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="4">
         <v>12544</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>29000000</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="3">
-        <v>579693345955352</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="H12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="4">
         <v>12544</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>3370000</v>
       </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13">
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13">
         <v>9217461784638568</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>13238</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>43</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>3370000</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>11</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>9321166387508984</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>13238</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>29000000</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="H15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="11">
         <v>6385680398412621</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>12544</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>29000000</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="11">
         <v>8304319469102250</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>12544</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>29000000</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="11">
         <v>5501197251335907</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>12544</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>29000000</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="11">
         <v>3480872089018964</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>52879</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>29000000</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="11">
         <v>6778159353368883</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>12544</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>34</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>3370000</v>
       </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20">
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20">
         <v>3984037635013600</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>13238</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>34</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>3370000</v>
       </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21">
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21">
         <v>9850700917636196</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>13238</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>29000000</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="11">
         <v>1582511726644469</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>52879</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>57</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>59</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>3370000</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>61</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1091989349445362</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>13238</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <v>29000000</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="H24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="11">
         <v>2250150372842021</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <v>12544</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G25" s="5">
         <v>29000000</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="11">
         <v>8276628793541827</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>12544</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>67</v>
       </c>
       <c r="B26" t="s">
         <v>68</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>64</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>3370000</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>11</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>4674771213389777</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>13238</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>30</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>6100000</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>11</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>5851402636153281</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>5728</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <v>29000000</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="11">
         <v>4207397081799205</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>12544</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="5">
+      <c r="G29" s="5">
         <v>29000000</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="H29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="11">
         <v>9660647910813976</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="4">
         <v>12544</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G30" s="5">
         <v>29000000</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="H30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="11">
         <v>9572376324377604</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <v>12544</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G31" s="5">
         <v>29000000</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="H31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="11">
         <v>8865748027333947</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J31" s="4">
         <v>12544</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K31" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>76</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>34</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>6100000</v>
       </c>
-      <c r="G32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32">
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32">
         <v>6960650360953767</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>5728</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G33" s="5">
         <v>29000000</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="H33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="11">
         <v>5574386881855905</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>12544</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G34" s="5">
         <v>29000000</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="H34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="11">
         <v>7210201495605784</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>52879</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="C35" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="5">
+      <c r="G35" s="5">
         <v>29000000</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="H35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="11">
         <v>9385718330610270</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>12544</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="5">
+      <c r="G36" s="5">
         <v>29000000</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="H36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="11">
         <v>8351081885286114</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J36" s="4">
         <v>12544</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="5">
+      <c r="G37" s="5">
         <v>29000000</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="11">
         <v>2134113791961701</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>12544</v>
       </c>
-      <c r="J37" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <v>29000000</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="3">
+      <c r="H38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="11">
         <v>4565586348253932</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <v>12544</v>
       </c>
-      <c r="J38" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="5">
+      <c r="G39" s="5">
         <v>29000000</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="3">
+      <c r="I39" s="11">
         <v>9400514919064176</v>
       </c>
-      <c r="I39" s="4">
+      <c r="J39" s="4">
         <v>52879</v>
       </c>
-      <c r="J39" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="C40" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="5">
+      <c r="G40" s="5">
         <v>29000000</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H40" s="3">
+      <c r="I40" s="11">
         <v>1293482927260375</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4">
         <v>12544</v>
       </c>
-      <c r="J40" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="C41" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="5">
+      <c r="G41" s="5">
         <v>29000000</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="H41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="11">
         <v>6116148445114151</v>
       </c>
-      <c r="I41" s="4">
+      <c r="J41" s="4">
         <v>12544</v>
       </c>
-      <c r="J41" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="C42" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="5">
+      <c r="G42" s="5">
         <v>29000000</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="11">
         <v>5460122248742187</v>
       </c>
-      <c r="I42" s="4">
+      <c r="J42" s="4">
         <v>12544</v>
       </c>
-      <c r="J42" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K42" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>76</v>
       </c>
       <c r="B43" t="s">
         <v>77</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>34</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>6100000</v>
       </c>
-      <c r="G43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43">
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43">
         <v>8325199296889107</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>5728</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="C44" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F44" s="5">
+      <c r="G44" s="5">
         <v>29000000</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="11">
         <v>9584781441846688</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>12544</v>
       </c>
-      <c r="J44" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="C45" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="5">
+      <c r="G45" s="5">
         <v>29000000</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="H45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="11">
         <v>6343762845735138</v>
       </c>
-      <c r="I45" s="4">
+      <c r="J45" s="4">
         <v>12544</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="C46" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="5">
+      <c r="G46" s="5">
         <v>29000000</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="11">
         <v>9651671834625084</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4">
         <v>12544</v>
       </c>
-      <c r="J46" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K46" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>92</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>89</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>3370000</v>
       </c>
-      <c r="G47" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47">
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47">
         <v>4764403215013992</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>13238</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="C48" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="5">
+      <c r="G48" s="5">
         <v>30868000</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="11">
         <v>7245392599126611</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J48" s="4">
         <v>12544</v>
       </c>
-      <c r="J48" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="5">
+      <c r="G49" s="5">
         <v>48979240</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="11">
         <v>8936044413498665</v>
       </c>
-      <c r="I49" s="4">
+      <c r="J49" s="4">
         <v>52880</v>
       </c>
-      <c r="J49" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="3" t="s">
+      <c r="C50" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="5">
+      <c r="G50" s="5">
         <v>53346000</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="3">
+      <c r="H50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="11">
         <v>6583904435236228</v>
       </c>
-      <c r="I50" s="4">
+      <c r="J50" s="4">
         <v>5728</v>
       </c>
-      <c r="J50" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="C51" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="5">
+      <c r="G51" s="5">
         <v>53346000</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="3">
+      <c r="H51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="11">
         <v>3585517588383251</v>
       </c>
-      <c r="I51" s="4">
+      <c r="J51" s="4">
         <v>5728</v>
       </c>
-      <c r="J51" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="C52" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="5">
+      <c r="G52" s="5">
         <v>53346000</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="H52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="11">
         <v>4404863375501363</v>
       </c>
-      <c r="I52" s="4">
+      <c r="J52" s="4">
         <v>5728</v>
       </c>
-      <c r="J52" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="5">
+      <c r="G53" s="5">
         <v>58000000</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="3">
+      <c r="H53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="11">
         <v>6894624752869881</v>
       </c>
-      <c r="I53" s="4">
+      <c r="J53" s="4">
         <v>53421</v>
       </c>
-      <c r="J53" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K53" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>101</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>56</v>
       </c>
-      <c r="F54" s="1">
+      <c r="G54" s="1">
         <v>3050000</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>102</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>8400382754270822</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>52879</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>73</v>
       </c>
       <c r="B55" t="s">
         <v>74</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>101</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="1">
+      <c r="G55" s="1">
         <v>6100000</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>102</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>5695776764927302</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>52880</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="5">
+      <c r="G56" s="5">
         <v>58000000</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="3">
+      <c r="H56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="11">
         <v>9275740779753128</v>
       </c>
-      <c r="I56" s="4">
+      <c r="J56" s="4">
         <v>52880</v>
       </c>
-      <c r="J56" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F57" s="5">
+      <c r="G57" s="5">
         <v>58000000</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="H57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="11">
         <v>6247165973771818</v>
       </c>
-      <c r="I57" s="4">
+      <c r="J57" s="4">
         <v>52880</v>
       </c>
-      <c r="J57" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="5">
+      <c r="G58" s="5">
         <v>116000000</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="11">
         <v>6114335238471841</v>
       </c>
-      <c r="I58" s="4">
+      <c r="J58" s="4">
         <v>53422</v>
       </c>
-      <c r="J58" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="5">
+      <c r="G59" s="5">
         <v>116000000</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="11">
         <v>1114266489716699</v>
       </c>
-      <c r="I59" s="4">
+      <c r="J59" s="4">
         <v>53142</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="K59" s="6" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J59" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="9">
+  <autoFilter ref="A1:K59" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="10">
       <filters>
         <filter val="UPDATED"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J59">
-      <sortCondition ref="F1:F59"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K59">
+      <sortCondition ref="G1:G59"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
